--- a/data/trans_orig/P6607-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>101738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86152</v>
+        <v>85195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118193</v>
+        <v>119719</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3675748799059019</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3112610528257085</v>
+        <v>0.3078055527299294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4270258248757792</v>
+        <v>0.4325385146110116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -764,19 +764,19 @@
         <v>150576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135960</v>
+        <v>135511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164619</v>
+        <v>163978</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6742194999093925</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6087731565213448</v>
+        <v>0.6067622933506807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7370969552226961</v>
+        <v>0.7342279655919227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -785,19 +785,19 @@
         <v>252315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229378</v>
+        <v>229289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275187</v>
+        <v>275881</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5045111067305457</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4586489076356513</v>
+        <v>0.4584699791639912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5502446399011484</v>
+        <v>0.5516337992949336</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>53491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41132</v>
+        <v>41265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67889</v>
+        <v>68589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1932601958474877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1486060195692267</v>
+        <v>0.1490892925915333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2452794477623129</v>
+        <v>0.2478076707408723</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -835,19 +835,19 @@
         <v>36157</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25123</v>
+        <v>25807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48408</v>
+        <v>49072</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1618958459555906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1124893806412051</v>
+        <v>0.1155555368851875</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2167494107516957</v>
+        <v>0.2197263636217902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -856,19 +856,19 @@
         <v>89648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73664</v>
+        <v>73058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109640</v>
+        <v>110870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1792540289336334</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1472939641577935</v>
+        <v>0.1460815742787244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2192290922591308</v>
+        <v>0.2216876213372132</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>51702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39377</v>
+        <v>40717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67940</v>
+        <v>66453</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1867961391627785</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1422650593323501</v>
+        <v>0.1471068345204178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2454636901225957</v>
+        <v>0.2400916650330427</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -906,19 +906,19 @@
         <v>9775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4925</v>
+        <v>4907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18494</v>
+        <v>18565</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04376858630631006</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02205019021540771</v>
+        <v>0.02197336106382505</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08280999003086281</v>
+        <v>0.08312591882985478</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -927,19 +927,19 @@
         <v>61477</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48702</v>
+        <v>47269</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78193</v>
+        <v>78044</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1229252862519916</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09738158853950651</v>
+        <v>0.0945168306653715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1563485396195709</v>
+        <v>0.1560515310033329</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>69851</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55926</v>
+        <v>56329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86776</v>
+        <v>85664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2523687850838319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2020568826465046</v>
+        <v>0.2035149711003139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3135149655484202</v>
+        <v>0.3094976431965137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -977,19 +977,19 @@
         <v>26826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17684</v>
+        <v>17958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39895</v>
+        <v>38992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1201160678287069</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07918299913301541</v>
+        <v>0.08041000157655163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1786349009681864</v>
+        <v>0.1745905817826715</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -998,19 +998,19 @@
         <v>96677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79239</v>
+        <v>80677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116366</v>
+        <v>117624</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1933095780838294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1584412718191702</v>
+        <v>0.161316184697617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2326774999408426</v>
+        <v>0.23519290274402</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>146838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129932</v>
+        <v>128884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>167061</v>
+        <v>167724</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3874365085378723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3428292677599243</v>
+        <v>0.3400642098965523</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4407963055331656</v>
+        <v>0.4425447623466255</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>171</v>
@@ -1123,19 +1123,19 @@
         <v>186539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>168980</v>
+        <v>169083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>200042</v>
+        <v>199015</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7335255006367224</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6644793343221068</v>
+        <v>0.6648823549972503</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7866241536451012</v>
+        <v>0.7825857431159829</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>311</v>
@@ -1144,19 +1144,19 @@
         <v>333377</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>305170</v>
+        <v>305221</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>358762</v>
+        <v>358881</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5264098240070192</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4818710670188115</v>
+        <v>0.481950631064136</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5664928860563793</v>
+        <v>0.5666811642951847</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>80276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66101</v>
+        <v>64528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96562</v>
+        <v>94923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2118116470696567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1744100971714325</v>
+        <v>0.1702604421498426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2547816840232954</v>
+        <v>0.2504577600674034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1194,19 +1194,19 @@
         <v>36720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25931</v>
+        <v>26720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48160</v>
+        <v>49211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.144395192558707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1019694218314353</v>
+        <v>0.1050694576396088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1893803314615607</v>
+        <v>0.1935115351218498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -1215,19 +1215,19 @@
         <v>116997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99617</v>
+        <v>99055</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137722</v>
+        <v>138617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1847403202882328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1572975947580198</v>
+        <v>0.1564107284478373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.21746687472964</v>
+        <v>0.2188786994995473</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>68745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55686</v>
+        <v>55301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>84684</v>
+        <v>85535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1813870855760325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1469287312772571</v>
+        <v>0.1459139248027184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2234426116374004</v>
+        <v>0.2256868140569492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1265,19 +1265,19 @@
         <v>17681</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10509</v>
+        <v>10669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29451</v>
+        <v>28629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0695280368792215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04132593185923362</v>
+        <v>0.04195433030952589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.115808350709956</v>
+        <v>0.1125793034600459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>82</v>
@@ -1286,19 +1286,19 @@
         <v>86427</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>69677</v>
+        <v>69545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>107522</v>
+        <v>105268</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1364696706407997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1100211082797664</v>
+        <v>0.1098123769749113</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1697801934843564</v>
+        <v>0.1662201644551561</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>83139</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65964</v>
+        <v>67799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99869</v>
+        <v>100984</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2193647588164385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1740489522415622</v>
+        <v>0.1788900278941943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2635066898802351</v>
+        <v>0.2664492720633008</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1336,19 +1336,19 @@
         <v>13364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7326</v>
+        <v>7054</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22779</v>
+        <v>22755</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05255126992534904</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02880679060153021</v>
+        <v>0.02773815332710007</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08957544054103332</v>
+        <v>0.08947898269977637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -1357,19 +1357,19 @@
         <v>96503</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80285</v>
+        <v>78486</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117556</v>
+        <v>117289</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1523801850639484</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1267713327754357</v>
+        <v>0.1239313722802424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1856234437463351</v>
+        <v>0.185202633410313</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>186815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164402</v>
+        <v>165059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207999</v>
+        <v>208413</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4118532320276572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3624404961863531</v>
+        <v>0.3638887988157687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4585554893359266</v>
+        <v>0.4594684215075114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>199</v>
@@ -1482,19 +1482,19 @@
         <v>210950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196937</v>
+        <v>195140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>225570</v>
+        <v>224758</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7570085529111933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7067232713146182</v>
+        <v>0.7002744082137614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8094769931275257</v>
+        <v>0.8065611386508982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>376</v>
@@ -1503,19 +1503,19 @@
         <v>397765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>366504</v>
+        <v>369458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>423805</v>
+        <v>424738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.543202708856494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.500511784446548</v>
+        <v>0.5045450087257918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.578763793076437</v>
+        <v>0.5800373646585991</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>93553</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77214</v>
+        <v>74730</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111381</v>
+        <v>111963</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2062471539032457</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.170226547019362</v>
+        <v>0.1647499249643092</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2455504631055845</v>
+        <v>0.2468337846015314</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -1553,19 +1553,19 @@
         <v>43647</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31516</v>
+        <v>32505</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56112</v>
+        <v>57638</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1566309397794927</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1130972783544714</v>
+        <v>0.1166457458517275</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2013629606335537</v>
+        <v>0.2068389977917736</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>131</v>
@@ -1574,19 +1574,19 @@
         <v>137200</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>117128</v>
+        <v>116118</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>159629</v>
+        <v>158287</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1873656145698813</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.159954180223382</v>
+        <v>0.1585755388787748</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2179951181759646</v>
+        <v>0.2161620831621749</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>96521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79309</v>
+        <v>80154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115347</v>
+        <v>115171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2127905921112296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1748439470533542</v>
+        <v>0.1767070211202326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2542951984836696</v>
+        <v>0.2539063007948326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1624,19 +1624,19 @@
         <v>13521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7371</v>
+        <v>7122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22980</v>
+        <v>21824</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04852050159274274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02645009210933073</v>
+        <v>0.02555735946067385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08246532331592465</v>
+        <v>0.07831530689225764</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1645,19 +1645,19 @@
         <v>110042</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93230</v>
+        <v>89885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130245</v>
+        <v>131098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1502773143411052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1273177061218955</v>
+        <v>0.1227509299053326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1778668499253676</v>
+        <v>0.1790325119056582</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>76707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59843</v>
+        <v>61994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95426</v>
+        <v>94639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1691090219578675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1319312029170583</v>
+        <v>0.136673109489746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2103773383537152</v>
+        <v>0.2086425423939193</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1695,19 +1695,19 @@
         <v>10545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5385</v>
+        <v>5285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19046</v>
+        <v>18460</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03784000571657121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01932359529678101</v>
+        <v>0.01896629397091773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06834627736055263</v>
+        <v>0.06624415509016332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -1716,19 +1716,19 @@
         <v>87252</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69539</v>
+        <v>70882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107633</v>
+        <v>107033</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1191543622325195</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.094965483176938</v>
+        <v>0.09679914071879256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1469879697980744</v>
+        <v>0.1461683440653395</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>138551</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122142</v>
+        <v>120184</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>159707</v>
+        <v>158586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4689656185907998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4134251230676951</v>
+        <v>0.4067989194743038</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.540574965302684</v>
+        <v>0.5367793997401999</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -1841,19 +1841,19 @@
         <v>139545</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124494</v>
+        <v>126538</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>150813</v>
+        <v>150914</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7526870203278737</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6715019122184412</v>
+        <v>0.6825286573019567</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8134661615635803</v>
+        <v>0.8140100559520683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -1862,19 +1862,19 @@
         <v>278096</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256495</v>
+        <v>254193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>302349</v>
+        <v>300555</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5783602862416499</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5334359227919211</v>
+        <v>0.5286495907587087</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.628799111340707</v>
+        <v>0.6250698353827943</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>69145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55103</v>
+        <v>54696</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85828</v>
+        <v>86257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2340405590798964</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1865136363315928</v>
+        <v>0.1851331842366549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.290509820256968</v>
+        <v>0.291962770696108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1912,19 +1912,19 @@
         <v>33996</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23261</v>
+        <v>24923</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46833</v>
+        <v>46372</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1833690170404775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1254685127185738</v>
+        <v>0.134429102238476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2526113875173502</v>
+        <v>0.250126430347933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -1933,19 +1933,19 @@
         <v>103141</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84370</v>
+        <v>84206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122010</v>
+        <v>123537</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2145030956851003</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1754657426247197</v>
+        <v>0.1751246819662998</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2537453397344005</v>
+        <v>0.2569220872352653</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>42879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30753</v>
+        <v>31015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57150</v>
+        <v>58188</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1451349137675813</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1040910362193437</v>
+        <v>0.1049791347686143</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1934395911603017</v>
+        <v>0.1969532849172175</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1983,19 +1983,19 @@
         <v>8761</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3955</v>
+        <v>3933</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17152</v>
+        <v>17138</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04725299679389133</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02133155945331032</v>
+        <v>0.02121225713972375</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09251578556082855</v>
+        <v>0.09243945116063879</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -2004,19 +2004,19 @@
         <v>51639</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39318</v>
+        <v>39012</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68828</v>
+        <v>68236</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1073945117013041</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08176979495415605</v>
+        <v>0.08113351501134104</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1431429645751305</v>
+        <v>0.1419116433931158</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>44865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32974</v>
+        <v>31524</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59416</v>
+        <v>58148</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1518589085617225</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1116087783753578</v>
+        <v>0.1067029624176261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2011122226474703</v>
+        <v>0.1968201584593968</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2054,19 +2054,19 @@
         <v>3094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8442</v>
+        <v>8198</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01669096583775751</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005197857565417689</v>
+        <v>0.00520461656041388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04553592358905589</v>
+        <v>0.04421999592056357</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2075,19 +2075,19 @@
         <v>47959</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36032</v>
+        <v>34665</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63725</v>
+        <v>63142</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09974210637194564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07493657907337868</v>
+        <v>0.07209318071408838</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1325301356002987</v>
+        <v>0.131316390624429</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>573942</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>533168</v>
+        <v>535049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>611629</v>
+        <v>612472</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4085530426203744</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.379528634165947</v>
+        <v>0.3808672440349081</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4353796201719987</v>
+        <v>0.435979926351484</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>636</v>
@@ -2200,19 +2200,19 @@
         <v>687611</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>658085</v>
+        <v>659105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>712677</v>
+        <v>715820</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7301818224849943</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6988277969651481</v>
+        <v>0.6999111328382434</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7568004254327337</v>
+        <v>0.760137671609092</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1174</v>
@@ -2221,19 +2221,19 @@
         <v>1261552</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1208508</v>
+        <v>1213806</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1307915</v>
+        <v>1312527</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5376283428619855</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5150225228138817</v>
+        <v>0.5172806332732751</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5573863032198935</v>
+        <v>0.5593519302420891</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>296465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>263908</v>
+        <v>266272</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>327726</v>
+        <v>327343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2110346965441627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1878594318100542</v>
+        <v>0.1895418888852814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.233287260662395</v>
+        <v>0.2330149833444676</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>140</v>
@@ -2271,19 +2271,19 @@
         <v>150520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130219</v>
+        <v>128191</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175400</v>
+        <v>175613</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1598393447462238</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.138280670744633</v>
+        <v>0.1361270596795779</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1862595649635635</v>
+        <v>0.1864855894682206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>422</v>
@@ -2292,19 +2292,19 @@
         <v>446985</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>407639</v>
+        <v>408983</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>486778</v>
+        <v>489208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1904890992034169</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.173720944407241</v>
+        <v>0.1742939669902575</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2074474943973262</v>
+        <v>0.2084828170276383</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>259847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>229241</v>
+        <v>228874</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>289055</v>
+        <v>290044</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1849685775518749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1631818617115689</v>
+        <v>0.1629205425994773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2057599031693285</v>
+        <v>0.2064641759110802</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2342,19 +2342,19 @@
         <v>49738</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36859</v>
+        <v>35960</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65984</v>
+        <v>65260</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05281707629844835</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03914104879551526</v>
+        <v>0.03818592861291731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07006901972151669</v>
+        <v>0.0693006510527371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>292</v>
@@ -2363,19 +2363,19 @@
         <v>309585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>274775</v>
+        <v>276957</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345034</v>
+        <v>341461</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1319338500351225</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1170991441730089</v>
+        <v>0.1180289333996503</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1470409026469689</v>
+        <v>0.1455185773910243</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>274563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>244116</v>
+        <v>243452</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>304273</v>
+        <v>308892</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.195443683283588</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1737703786531831</v>
+        <v>0.1732977753930207</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2165927300239566</v>
+        <v>0.2198804659980899</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>48</v>
@@ -2413,19 +2413,19 @@
         <v>53829</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>41034</v>
+        <v>39922</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>71626</v>
+        <v>70212</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0571617564703335</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04357471135737673</v>
+        <v>0.04239364429106665</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07606078225657419</v>
+        <v>0.07455917042723169</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>303</v>
@@ -2434,19 +2434,19 @@
         <v>328392</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>295693</v>
+        <v>292652</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>362737</v>
+        <v>363971</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1399487078994752</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1260136937397766</v>
+        <v>0.1247177093619935</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1545854140231712</v>
+        <v>0.1551114036587848</v>
       </c>
     </row>
     <row r="28">
@@ -2778,19 +2778,19 @@
         <v>80819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65746</v>
+        <v>65848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96357</v>
+        <v>98491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2788776729041338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2268645035039935</v>
+        <v>0.227217077408862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3324909525486738</v>
+        <v>0.3398567725984871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -2799,19 +2799,19 @@
         <v>172864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156965</v>
+        <v>156651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189425</v>
+        <v>188120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.625787816985249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.568230260840592</v>
+        <v>0.56709556488987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6857414031415701</v>
+        <v>0.6810159173912635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -2820,19 +2820,19 @@
         <v>253683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228834</v>
+        <v>229874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277826</v>
+        <v>277885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.448174971948115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4042747160040568</v>
+        <v>0.4061121458167243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4908267166086835</v>
+        <v>0.4909314843932713</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>71543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56563</v>
+        <v>57204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87919</v>
+        <v>86745</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2468697561744116</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1951780147013308</v>
+        <v>0.1973897079329146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3033761392937684</v>
+        <v>0.2993245060304698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -2870,19 +2870,19 @@
         <v>66040</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51603</v>
+        <v>52836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81460</v>
+        <v>81283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2390734634282336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1868090734118329</v>
+        <v>0.1912734473132021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2948965894509957</v>
+        <v>0.2942544161931215</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -2891,19 +2891,19 @@
         <v>137584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118180</v>
+        <v>116484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158434</v>
+        <v>158861</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2430650496041261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.208784556158722</v>
+        <v>0.2057892422229209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2799013391642711</v>
+        <v>0.2806547693791773</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>55225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42333</v>
+        <v>42416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70534</v>
+        <v>72915</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1905597599088366</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1460749113213123</v>
+        <v>0.1463628869714363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2433866923349846</v>
+        <v>0.2516021842081663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -2941,19 +2941,19 @@
         <v>14225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8368</v>
+        <v>8010</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22774</v>
+        <v>23148</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05149763221419065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03029390755212956</v>
+        <v>0.02899700206734392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08244316351526425</v>
+        <v>0.08379710181662642</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -2962,19 +2962,19 @@
         <v>69450</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54682</v>
+        <v>54886</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87187</v>
+        <v>88057</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1226953776770275</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09660578543910674</v>
+        <v>0.09696598932936273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.154031630656852</v>
+        <v>0.155568512275831</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>82215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67391</v>
+        <v>67945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98888</v>
+        <v>99837</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.283692811012618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2325404202296104</v>
+        <v>0.2344533707386037</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3412271549749298</v>
+        <v>0.3445017883813924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3012,19 +3012,19 @@
         <v>23105</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14490</v>
+        <v>14830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32558</v>
+        <v>33496</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08364108737232674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05245430199904609</v>
+        <v>0.05368573023765387</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1178652780742825</v>
+        <v>0.1212603457546507</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -3033,19 +3033,19 @@
         <v>105319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87447</v>
+        <v>88938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126464</v>
+        <v>126279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1860646007707314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1544898074265953</v>
+        <v>0.1571244142375276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2234210733847906</v>
+        <v>0.223093709946927</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>114294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97118</v>
+        <v>96263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>134417</v>
+        <v>131101</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2946866278130316</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2504034454456249</v>
+        <v>0.2481977750508795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3465715810631468</v>
+        <v>0.3380217082832924</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>181</v>
@@ -3158,19 +3158,19 @@
         <v>189269</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173371</v>
+        <v>172450</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>203466</v>
+        <v>203273</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7031522856953788</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.644091434146445</v>
+        <v>0.6406666294148643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7558951044121252</v>
+        <v>0.7551805882468567</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>292</v>
@@ -3179,19 +3179,19 @@
         <v>303562</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>276349</v>
+        <v>277286</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>331763</v>
+        <v>330710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.462029342595172</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4206101214730975</v>
+        <v>0.4220361344945996</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5049512622269622</v>
+        <v>0.5033492673277471</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>118401</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98647</v>
+        <v>102063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138446</v>
+        <v>139239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3052765104070003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2543446946344271</v>
+        <v>0.2631509273820944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3569598936767649</v>
+        <v>0.3590030428692702</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3229,19 +3229,19 @@
         <v>40223</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30141</v>
+        <v>30202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54728</v>
+        <v>54344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.149432776774262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1119757212925494</v>
+        <v>0.1122046820086093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2033185689278144</v>
+        <v>0.2018915897035702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -3250,19 +3250,19 @@
         <v>158624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135294</v>
+        <v>135139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182548</v>
+        <v>181614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2414294942267589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2059203777120176</v>
+        <v>0.2056846674143259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.277842464781605</v>
+        <v>0.2764218189428994</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>62562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48695</v>
+        <v>49018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78291</v>
+        <v>77418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1613050983085227</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1255507942337773</v>
+        <v>0.1263834121548553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2018612268109717</v>
+        <v>0.1996089167640323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -3300,19 +3300,19 @@
         <v>19015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11685</v>
+        <v>11701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29632</v>
+        <v>27788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07064078378861019</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04341158458610756</v>
+        <v>0.04347085094421432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1100848594049546</v>
+        <v>0.1032334378836555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>80</v>
@@ -3321,19 +3321,19 @@
         <v>81576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65255</v>
+        <v>65876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>97215</v>
+        <v>100288</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1241611861268183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09931947821797746</v>
+        <v>0.1002647491335769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1479633974126577</v>
+        <v>0.1526406206486572</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>92592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>74769</v>
+        <v>77166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108866</v>
+        <v>109685</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2387317634714454</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1927795431600233</v>
+        <v>0.1989605106765446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2806917112114137</v>
+        <v>0.2828028201006516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -3371,19 +3371,19 @@
         <v>20665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13780</v>
+        <v>13797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31235</v>
+        <v>31563</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07677415374174897</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05119560932309807</v>
+        <v>0.05125612527498777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1160424979779326</v>
+        <v>0.1172603962133755</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -3392,19 +3392,19 @@
         <v>113257</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95499</v>
+        <v>94636</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>133776</v>
+        <v>134058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1723799770512507</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1453525030519328</v>
+        <v>0.1440386102690339</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2036107645519484</v>
+        <v>0.2040403638107239</v>
       </c>
     </row>
     <row r="13">
@@ -3496,19 +3496,19 @@
         <v>202540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181272</v>
+        <v>178991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>225190</v>
+        <v>223442</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4459764900689713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.399145870343638</v>
+        <v>0.3941241339988403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4958494434432943</v>
+        <v>0.491999832421294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -3517,19 +3517,19 @@
         <v>202759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186615</v>
+        <v>186601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218093</v>
+        <v>218348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6976406707570894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6420932308666015</v>
+        <v>0.6420474629390971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7504020915699898</v>
+        <v>0.7512789484108647</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>397</v>
@@ -3538,19 +3538,19 @@
         <v>405299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>376085</v>
+        <v>380047</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>433271</v>
+        <v>435259</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5441826154092905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5049578214751137</v>
+        <v>0.5102778888499991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5817393532540842</v>
+        <v>0.5844095429577141</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>111634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93540</v>
+        <v>92563</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>132549</v>
+        <v>129905</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2458094328208848</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.205966488625393</v>
+        <v>0.2038159176221068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2918616770065824</v>
+        <v>0.28603968762113</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>53</v>
@@ -3588,19 +3588,19 @@
         <v>53536</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40879</v>
+        <v>41832</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66801</v>
+        <v>67284</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1842034926313963</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1406541149257256</v>
+        <v>0.1439333977626901</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2298464360408188</v>
+        <v>0.2315055849256545</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>156</v>
@@ -3609,19 +3609,19 @@
         <v>165170</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>145125</v>
+        <v>138229</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>188759</v>
+        <v>185390</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2217691396515726</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.194854620702737</v>
+        <v>0.1855955221410623</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2534412122074516</v>
+        <v>0.2489179598527086</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>73246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58201</v>
+        <v>58156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91138</v>
+        <v>90875</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1612818634648895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1281545882736143</v>
+        <v>0.1280540812214565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.200678302424904</v>
+        <v>0.2000993743380871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -3659,19 +3659,19 @@
         <v>23103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14928</v>
+        <v>14922</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33654</v>
+        <v>33581</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07949109012213458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0513625447486404</v>
+        <v>0.05134344537172168</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1157959403932391</v>
+        <v>0.1155432226043476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3680,19 +3680,19 @@
         <v>96349</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78597</v>
+        <v>77525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116473</v>
+        <v>116265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293649060472006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1055292363738322</v>
+        <v>0.104090087390649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1563853529604142</v>
+        <v>0.1561054012291953</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>66729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54048</v>
+        <v>51526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84569</v>
+        <v>82015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1469322136452544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1190081616826573</v>
+        <v>0.113456793088632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1862136904589451</v>
+        <v>0.1805901094804313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3730,19 +3730,19 @@
         <v>11237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5753</v>
+        <v>6187</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20610</v>
+        <v>20222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03866474648937972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01979363599245263</v>
+        <v>0.02128826135541231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07091502508860137</v>
+        <v>0.06957912388241833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -3751,19 +3751,19 @@
         <v>77967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61444</v>
+        <v>62277</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93656</v>
+        <v>96555</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1046833388919363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08249934414446108</v>
+        <v>0.08361746376706114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.125749583507858</v>
+        <v>0.129641542895602</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>144156</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126413</v>
+        <v>124802</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162648</v>
+        <v>160922</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5278281629813464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4628643526604808</v>
+        <v>0.4569633724530447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5955384618843822</v>
+        <v>0.5892166091935788</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -3876,19 +3876,19 @@
         <v>150088</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>135012</v>
+        <v>137162</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160087</v>
+        <v>160826</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7733999671997912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6957128892671168</v>
+        <v>0.706789909869854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8249219276501533</v>
+        <v>0.828729471155822</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>274</v>
@@ -3897,19 +3897,19 @@
         <v>294244</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>272178</v>
+        <v>270383</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>315838</v>
+        <v>314108</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6298380381417574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5826043713962455</v>
+        <v>0.5787626736564278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6760608076062286</v>
+        <v>0.6723581708190906</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>57231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43683</v>
+        <v>44108</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71776</v>
+        <v>72052</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2095507082360533</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.15994672362458</v>
+        <v>0.1615030864032344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2628071037502026</v>
+        <v>0.263819879070919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -3947,19 +3947,19 @@
         <v>32083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22263</v>
+        <v>21655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45033</v>
+        <v>42930</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1653217666448887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1147191113084587</v>
+        <v>0.1115874221959241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2320544994209758</v>
+        <v>0.2212158948674271</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -3968,19 +3968,19 @@
         <v>89313</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73514</v>
+        <v>72975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108510</v>
+        <v>108681</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1911781233843395</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.157358700592344</v>
+        <v>0.1562046899402927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2322683141041514</v>
+        <v>0.2326348113482309</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>36940</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25108</v>
+        <v>26939</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50411</v>
+        <v>51084</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1352557853604202</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09193185857290435</v>
+        <v>0.09863819112522429</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1845817354036077</v>
+        <v>0.1870461277360926</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -4018,19 +4018,19 @@
         <v>7858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3663</v>
+        <v>3905</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14247</v>
+        <v>15286</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04049169600502576</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01887582574548487</v>
+        <v>0.02012148278254363</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07341555921307839</v>
+        <v>0.07876978409085095</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -4039,19 +4039,19 @@
         <v>44798</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33451</v>
+        <v>31958</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60701</v>
+        <v>58616</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09589103436386529</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07160373033272191</v>
+        <v>0.06840746959659905</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1299319328261852</v>
+        <v>0.1254692113148172</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>34785</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23427</v>
+        <v>24892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48615</v>
+        <v>48419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.12736534342218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08577908057863996</v>
+        <v>0.09114285780078805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1780048461236391</v>
+        <v>0.1772874396538404</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4089,19 +4089,19 @@
         <v>4034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10980</v>
+        <v>11709</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0207865701502944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004854492652961634</v>
+        <v>0.004844329606964691</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05657931070952303</v>
+        <v>0.06033546153879542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -4110,19 +4110,19 @@
         <v>38819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27706</v>
+        <v>27136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53280</v>
+        <v>53329</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08309280411003776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05930514770346637</v>
+        <v>0.05808515803302677</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1140479566639144</v>
+        <v>0.1141518810730085</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>541809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>507412</v>
+        <v>501028</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>578592</v>
+        <v>581275</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3856535578533418</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3611700221472017</v>
+        <v>0.3566259700004542</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4118355080398757</v>
+        <v>0.4137449992620237</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>699</v>
@@ -4235,19 +4235,19 @@
         <v>714980</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>684077</v>
+        <v>683055</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>746024</v>
+        <v>742041</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6940851604243026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6640857539219146</v>
+        <v>0.6630933231053545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7242222292138771</v>
+        <v>0.7203558588130975</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1209</v>
@@ -4256,19 +4256,19 @@
         <v>1256789</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1208328</v>
+        <v>1207528</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1310390</v>
+        <v>1315214</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5161318491496704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4962303585307658</v>
+        <v>0.4959018558863502</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5381445135738941</v>
+        <v>0.540125730307484</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>358809</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>324729</v>
+        <v>321698</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>392641</v>
+        <v>390587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2553963576947216</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2311381325806985</v>
+        <v>0.2289813478618341</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.27947743854625</v>
+        <v>0.2780152829108262</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -4306,19 +4306,19 @@
         <v>191882</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>165838</v>
+        <v>169402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220210</v>
+        <v>218195</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1862745541205312</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1609918633432872</v>
+        <v>0.1644512829926979</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2137746127480789</v>
+        <v>0.2118183880723612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>514</v>
@@ -4327,19 +4327,19 @@
         <v>550691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>509519</v>
+        <v>506490</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>593497</v>
+        <v>593694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2261552074802074</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2092468023930334</v>
+        <v>0.2080030082130877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2437343623597333</v>
+        <v>0.2438151560491231</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>227972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>199894</v>
+        <v>199984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>256344</v>
+        <v>258940</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1622682490536269</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1422826690170605</v>
+        <v>0.1423466703226504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1824629830293135</v>
+        <v>0.1843106522822525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -4377,19 +4377,19 @@
         <v>64201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51624</v>
+        <v>50288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80527</v>
+        <v>82276</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06232453421826665</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05011546121020825</v>
+        <v>0.04881847275095813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07817388117077732</v>
+        <v>0.07987154430185665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -4398,19 +4398,19 @@
         <v>292173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258053</v>
+        <v>260127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>324865</v>
+        <v>325318</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1199882588424257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1059760310267638</v>
+        <v>0.1068278492929035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1334139854108557</v>
+        <v>0.1335998732119727</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>276320</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>245982</v>
+        <v>247161</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>307956</v>
+        <v>307562</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1966818353983097</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1750872826228805</v>
+        <v>0.1759267937411458</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2191994685601351</v>
+        <v>0.2189190127316015</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -4448,19 +4448,19 @@
         <v>59041</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44819</v>
+        <v>46428</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74632</v>
+        <v>76877</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05731575123689958</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04350918315057337</v>
+        <v>0.04507136576811675</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07245089481697276</v>
+        <v>0.0746305593501531</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>316</v>
@@ -4469,19 +4469,19 @@
         <v>335362</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>300590</v>
+        <v>300913</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>370393</v>
+        <v>371399</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1377246845276966</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1234446714456822</v>
+        <v>0.1235776510825352</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1521112804596137</v>
+        <v>0.1525242703597033</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>18763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11367</v>
+        <v>10958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30170</v>
+        <v>29883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.196930682714259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1193085855787079</v>
+        <v>0.1150155802654859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3166609180334963</v>
+        <v>0.3136431621669785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -4834,19 +4834,19 @@
         <v>42665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34179</v>
+        <v>34230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51054</v>
+        <v>50848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.542579355563108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4346569019425624</v>
+        <v>0.4353021830517074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6492673367145821</v>
+        <v>0.6466442131489791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -4855,19 +4855,19 @@
         <v>61428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48944</v>
+        <v>48845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76345</v>
+        <v>75219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3532172252383535</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2814337760944361</v>
+        <v>0.2808615278027631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4389918611305196</v>
+        <v>0.4325194275916665</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>10776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5281</v>
+        <v>5738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17816</v>
+        <v>17731</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1131006798545711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05542446965623191</v>
+        <v>0.0602222201472144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1869899773997616</v>
+        <v>0.1860997204859413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -4905,19 +4905,19 @@
         <v>20024</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13509</v>
+        <v>13494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27162</v>
+        <v>27702</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2546460191251754</v>
+        <v>0.2546460191251755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1717968971394834</v>
+        <v>0.1716085637435291</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3454212756038867</v>
+        <v>0.3522935217088852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -4926,19 +4926,19 @@
         <v>30800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22504</v>
+        <v>21697</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41799</v>
+        <v>42094</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1771010172569265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1293991286672632</v>
+        <v>0.1247588698305471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.240350622762602</v>
+        <v>0.2420431208124771</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>21359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12201</v>
+        <v>13081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32742</v>
+        <v>31730</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2241805490365539</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.128055195893762</v>
+        <v>0.1373002503840348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3436535407080579</v>
+        <v>0.3330368952778868</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -4976,19 +4976,19 @@
         <v>4903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2126</v>
+        <v>1987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10221</v>
+        <v>9204</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06235847568426501</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02704224692518875</v>
+        <v>0.02526458762723659</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.129981635234154</v>
+        <v>0.1170440771553626</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -4997,19 +4997,19 @@
         <v>26262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17309</v>
+        <v>17560</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39238</v>
+        <v>38647</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1510119986126119</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09952885970719037</v>
+        <v>0.1009723607812952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2256207420935282</v>
+        <v>0.2222234364618135</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>44378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31622</v>
+        <v>33266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56270</v>
+        <v>56595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4657880883946159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3319023478247122</v>
+        <v>0.3491514161623372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5905963638263408</v>
+        <v>0.594012878405154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5047,19 +5047,19 @@
         <v>11041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5862</v>
+        <v>5646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18209</v>
+        <v>19692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1404161496274516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07454506554651885</v>
+        <v>0.07179541027667442</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2315643800412561</v>
+        <v>0.2504263557311451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -5068,19 +5068,19 @@
         <v>55420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43120</v>
+        <v>41197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70776</v>
+        <v>70247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3186697588921081</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2479469099823681</v>
+        <v>0.2368869007885298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4069689531462717</v>
+        <v>0.4039255551339762</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>74334</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60055</v>
+        <v>58476</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91744</v>
+        <v>93280</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.319875719687518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2584307476030838</v>
+        <v>0.2516369867689038</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3947964099670287</v>
+        <v>0.4014035213903301</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>119</v>
@@ -5193,19 +5193,19 @@
         <v>94488</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82447</v>
+        <v>82595</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106077</v>
+        <v>105624</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.5757978576652395</v>
+        <v>0.5757978576652393</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5024221883722206</v>
+        <v>0.5033267683447031</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.646420460635596</v>
+        <v>0.6436630903194444</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>179</v>
@@ -5214,19 +5214,19 @@
         <v>168822</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>146882</v>
+        <v>146869</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>189116</v>
+        <v>190330</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4257982394319179</v>
+        <v>0.4257982394319178</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3704623657831692</v>
+        <v>0.3704294617286535</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.476983810666035</v>
+        <v>0.4800467776645386</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>68972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53470</v>
+        <v>54152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85333</v>
+        <v>85922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2968019794261478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2300916247513075</v>
+        <v>0.2330283326130613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3672064579471788</v>
+        <v>0.3697406741208614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5264,19 +5264,19 @@
         <v>37587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28316</v>
+        <v>26981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48703</v>
+        <v>47847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2290512269820385</v>
+        <v>0.2290512269820384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1725528302775328</v>
+        <v>0.1644212305998401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2967896072464014</v>
+        <v>0.2915748237576195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -5285,19 +5285,19 @@
         <v>106559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87778</v>
+        <v>88717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126853</v>
+        <v>126233</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2687609100987111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2213926596583113</v>
+        <v>0.2237607390282471</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3199455661503654</v>
+        <v>0.3183819417492635</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>43050</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30694</v>
+        <v>30720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56479</v>
+        <v>57631</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1852526340916593</v>
+        <v>0.1852526340916592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1320847386350099</v>
+        <v>0.1321963404302813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2430414444376763</v>
+        <v>0.2479981081593052</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5335,19 +5335,19 @@
         <v>11798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6212</v>
+        <v>6995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19098</v>
+        <v>20317</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07189743876931434</v>
+        <v>0.07189743876931433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03785398898074151</v>
+        <v>0.04262530722622272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1163788204304037</v>
+        <v>0.1238102625506184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -5356,19 +5356,19 @@
         <v>54848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42360</v>
+        <v>41359</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72924</v>
+        <v>72840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1383365368382571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1068397150200023</v>
+        <v>0.1043140999656237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1839271707140621</v>
+        <v>0.1837155526104001</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>46028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33996</v>
+        <v>32752</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62429</v>
+        <v>61413</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1980696667946749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1462905842241858</v>
+        <v>0.1409409171297273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2686445942572415</v>
+        <v>0.264275648525263</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -5406,19 +5406,19 @@
         <v>20226</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13334</v>
+        <v>13520</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28843</v>
+        <v>29471</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1232534765834079</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08125622090426052</v>
+        <v>0.08239096814519703</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.175767717145155</v>
+        <v>0.179595236687201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -5427,19 +5427,19 @@
         <v>66254</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51138</v>
+        <v>51426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83929</v>
+        <v>82930</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.167104313631114</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1289801757502543</v>
+        <v>0.1297053961847915</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2116831637624627</v>
+        <v>0.2091636205857869</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>118646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99324</v>
+        <v>101228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137230</v>
+        <v>138136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3683253139538877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3083437850893453</v>
+        <v>0.3142535744741604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4260199396024015</v>
+        <v>0.428832119737686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>254</v>
@@ -5552,19 +5552,19 @@
         <v>189410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177318</v>
+        <v>177204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200043</v>
+        <v>199867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.768919827725668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7198310724044682</v>
+        <v>0.7193663596349181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8120838982955287</v>
+        <v>0.8113710595767591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>359</v>
@@ -5573,19 +5573,19 @@
         <v>308056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>286052</v>
+        <v>284994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331002</v>
+        <v>331458</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.541917731312382</v>
+        <v>0.5419177313123821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5032090632572093</v>
+        <v>0.5013490651701712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5822828805763169</v>
+        <v>0.5830864903839315</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>93243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>76494</v>
+        <v>76524</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115203</v>
+        <v>112499</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2894643329560743</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2374681122177904</v>
+        <v>0.2375632860537903</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3576374799002826</v>
+        <v>0.3492441586374294</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>54</v>
@@ -5623,19 +5623,19 @@
         <v>35433</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27116</v>
+        <v>27420</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46023</v>
+        <v>45654</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1438429183339285</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1100796783941659</v>
+        <v>0.1113116158965971</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1868316990121078</v>
+        <v>0.1853361549483801</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>140</v>
@@ -5644,19 +5644,19 @@
         <v>128676</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>107937</v>
+        <v>109426</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>147960</v>
+        <v>148929</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2263611887182496</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1898779904238952</v>
+        <v>0.192496840956475</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2602842120097295</v>
+        <v>0.2619882430420941</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>54451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41820</v>
+        <v>40317</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70653</v>
+        <v>70495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1690385590404516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1298267359462989</v>
+        <v>0.1251611409216865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2193367770173643</v>
+        <v>0.2188446251966349</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -5694,19 +5694,19 @@
         <v>13603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8903</v>
+        <v>8365</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21281</v>
+        <v>20974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05522059968899637</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03614387540294635</v>
+        <v>0.03395804135468339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08639032235189785</v>
+        <v>0.08514445410504329</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -5715,19 +5715,19 @@
         <v>68054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53474</v>
+        <v>52855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88045</v>
+        <v>87473</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1197170281073392</v>
+        <v>0.1197170281073393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09406947145727289</v>
+        <v>0.09297960136505176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1548838849783412</v>
+        <v>0.15387831284527</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>55782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41219</v>
+        <v>41940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73430</v>
+        <v>71913</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1731717940495863</v>
+        <v>0.1731717940495864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1279619825808803</v>
+        <v>0.1301977368096827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2279584416585548</v>
+        <v>0.2232491965079072</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -5765,19 +5765,19 @@
         <v>7887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4174</v>
+        <v>4056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13934</v>
+        <v>13546</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03201665425140708</v>
+        <v>0.03201665425140707</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01694290259296434</v>
+        <v>0.01646516518923222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05656538570175695</v>
+        <v>0.05499177256818114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -5786,19 +5786,19 @@
         <v>63669</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49563</v>
+        <v>49220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83117</v>
+        <v>82791</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.112004051862029</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08718954935731656</v>
+        <v>0.08658570709193053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1462152583306065</v>
+        <v>0.1456423860410086</v>
       </c>
     </row>
     <row r="18">
@@ -5890,19 +5890,19 @@
         <v>179315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158384</v>
+        <v>156596</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>198696</v>
+        <v>197698</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5633002871156536</v>
+        <v>0.5633002871156537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.49754737162452</v>
+        <v>0.4919298824142592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6241846771393375</v>
+        <v>0.6210502535442074</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>248</v>
@@ -5911,19 +5911,19 @@
         <v>177477</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168010</v>
+        <v>166983</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>186901</v>
+        <v>185875</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8218028770262785</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7779646164604961</v>
+        <v>0.7732093780055339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8654370174506673</v>
+        <v>0.8606855092630976</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>405</v>
@@ -5932,19 +5932,19 @@
         <v>356792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332009</v>
+        <v>334155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>376919</v>
+        <v>380966</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6677877163887928</v>
+        <v>0.6677877163887926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6214028294035424</v>
+        <v>0.6254195939145556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7054571791255903</v>
+        <v>0.7130330629403123</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>56248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42117</v>
+        <v>42467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72148</v>
+        <v>74139</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.176697057931942</v>
+        <v>0.1766970579319421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1323062979759526</v>
+        <v>0.1334045871403808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2266456220452391</v>
+        <v>0.2328990340161408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -5982,19 +5982,19 @@
         <v>19690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13201</v>
+        <v>13402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27179</v>
+        <v>27257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09117450240993988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06112762072303224</v>
+        <v>0.06205834020544095</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1258494298175094</v>
+        <v>0.1262103707006122</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -6003,19 +6003,19 @@
         <v>75938</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60157</v>
+        <v>60355</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>95563</v>
+        <v>94716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1421286152155543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1125916974183783</v>
+        <v>0.1129627054072475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1788602022260309</v>
+        <v>0.1772741035950905</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>31905</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20811</v>
+        <v>19908</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47978</v>
+        <v>47175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1002273438338835</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06537687358400973</v>
+        <v>0.0625394126761217</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1507197549976114</v>
+        <v>0.1481965427439006</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6053,19 +6053,19 @@
         <v>7836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4151</v>
+        <v>4425</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13173</v>
+        <v>14423</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03628408298393758</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01922151740474139</v>
+        <v>0.02049108078512379</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0609989040990843</v>
+        <v>0.06678716205492914</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -6074,19 +6074,19 @@
         <v>39741</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27851</v>
+        <v>27750</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>57843</v>
+        <v>56509</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07438130899197881</v>
+        <v>0.07438130899197883</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05212777387090169</v>
+        <v>0.05193756005180339</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1082607273989013</v>
+        <v>0.1057638670726547</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>50861</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36567</v>
+        <v>36327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68443</v>
+        <v>68042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1597753111185208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1148729081139672</v>
+        <v>0.1141163082331619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2150065313037495</v>
+        <v>0.2137480152483611</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6124,19 +6124,19 @@
         <v>10958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6212</v>
+        <v>6802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17715</v>
+        <v>18637</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05073853757984408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02876485265061182</v>
+        <v>0.03149676000603012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08202799540801678</v>
+        <v>0.08630029767146918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -6145,19 +6145,19 @@
         <v>61819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46872</v>
+        <v>46443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82158</v>
+        <v>82197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1157023594036742</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08772855147381471</v>
+        <v>0.0869254965805322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1537695026570904</v>
+        <v>0.1538439088697407</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>391057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>358918</v>
+        <v>357769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>428355</v>
+        <v>426863</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4039383538851318</v>
+        <v>0.4039383538851317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3707402107687156</v>
+        <v>0.3695538515008943</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4424644256092438</v>
+        <v>0.4409236416913263</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>669</v>
@@ -6270,19 +6270,19 @@
         <v>504041</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>481174</v>
+        <v>481811</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>524673</v>
+        <v>524311</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7149240586720087</v>
+        <v>0.7149240586720086</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6824898050150677</v>
+        <v>0.683393182167599</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7441891472655798</v>
+        <v>0.7436744502631089</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1005</v>
@@ -6291,19 +6291,19 @@
         <v>895098</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>851939</v>
+        <v>852237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>940111</v>
+        <v>939920</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5349814972505403</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5091864644440454</v>
+        <v>0.5093641511501391</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5618847529924071</v>
+        <v>0.5617709312471559</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>229239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201958</v>
+        <v>201406</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>261844</v>
+        <v>259393</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2367895066432397</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2086105896925113</v>
+        <v>0.2080403723294415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2704693416471578</v>
+        <v>0.2679371958600692</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>153</v>
@@ -6341,19 +6341,19 @@
         <v>112734</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95723</v>
+        <v>95749</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130895</v>
+        <v>132129</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1599006627084537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1357714360086952</v>
+        <v>0.1358094170018246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.185659779189541</v>
+        <v>0.1874100008137728</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>357</v>
@@ -6362,19 +6362,19 @@
         <v>341973</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>310929</v>
+        <v>310344</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376396</v>
+        <v>378083</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2043900887797988</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1858359053495065</v>
+        <v>0.1854864333754622</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2249643790480196</v>
+        <v>0.2259721466950713</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>150765</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126218</v>
+        <v>128119</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179434</v>
+        <v>182351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1557312344367664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1303750868048119</v>
+        <v>0.1323393856084404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.185344664565164</v>
+        <v>0.1883572332274934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -6412,19 +6412,19 @@
         <v>38140</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29095</v>
+        <v>28892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49658</v>
+        <v>49853</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05409776597079548</v>
+        <v>0.05409776597079547</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04126735737671063</v>
+        <v>0.040980033095951</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07043376555645024</v>
+        <v>0.07071118623956298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>173</v>
@@ -6433,19 +6433,19 @@
         <v>188906</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>161158</v>
+        <v>161762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>217058</v>
+        <v>219199</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.112904927716214</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0963205781698647</v>
+        <v>0.09668166592655737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1297308803572755</v>
+        <v>0.1310108851600191</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>197050</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>168178</v>
+        <v>168751</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>226201</v>
+        <v>227199</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2035409050348623</v>
+        <v>0.2035409050348622</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1737181965965761</v>
+        <v>0.1743097427095305</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2336514808503676</v>
+        <v>0.234682889563876</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>64</v>
@@ -6483,19 +6483,19 @@
         <v>50112</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>38590</v>
+        <v>38126</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>63072</v>
+        <v>64053</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0710775126487421</v>
+        <v>0.07107751264874207</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05473577279626792</v>
+        <v>0.05407752359952829</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08946005329101038</v>
+        <v>0.09085159272975088</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>220</v>
@@ -6504,19 +6504,19 @@
         <v>247162</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>216195</v>
+        <v>217600</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>284010</v>
+        <v>280216</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1477234862534469</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1292154961104391</v>
+        <v>0.1300550122785069</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1697466413498259</v>
+        <v>0.1674795890235186</v>
       </c>
     </row>
     <row r="28">
